--- a/IntelligentSystems/EclipseWorkspace/LanguageDetection/total.xlsx
+++ b/IntelligentSystems/EclipseWorkspace/LanguageDetection/total.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schoolwork\CollegeYear5\IntelligentSystems\EclipseWorkspace\LanguageDetection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\CollegeYear5\IntelligentSystems\EclipseWorkspace\LanguageDetection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Variance</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>RANGE</t>
   </si>
 </sst>
 </file>
@@ -391,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N779"/>
+  <dimension ref="A1:N782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
-      <selection activeCell="N779" sqref="A775:N779"/>
+    <sheetView tabSelected="1" topLeftCell="A764" workbookViewId="0">
+      <selection activeCell="A782" sqref="A782:M782"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>-51.115103086523298</v>
       </c>
@@ -440,7 +443,7 @@
         <v>-1.31701273205225</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-72.399858214242499</v>
       </c>
@@ -481,7 +484,7 @@
         <v>-3.2705307636270202</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-57.457978113039701</v>
       </c>
@@ -522,7 +525,7 @@
         <v>-0.83764610054565702</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-68.732134070803198</v>
       </c>
@@ -563,7 +566,7 @@
         <v>-2.2993526558527302</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-60.160960058349303</v>
       </c>
@@ -604,7 +607,7 @@
         <v>-1.6482116261300299</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-56.746985825843602</v>
       </c>
@@ -645,7 +648,7 @@
         <v>9.68657364714995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-67.395508546657197</v>
       </c>
@@ -686,7 +689,7 @@
         <v>-2.35864560447384</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-58.018315332564697</v>
       </c>
@@ -727,7 +730,7 @@
         <v>-1.25753368992923</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-60.565123497788001</v>
       </c>
@@ -768,7 +771,7 @@
         <v>-0.86105051165018698</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-65.718500523305096</v>
       </c>
@@ -809,7 +812,7 @@
         <v>-0.794253903136802</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-63.283988941501804</v>
       </c>
@@ -850,7 +853,7 @@
         <v>2.2401533467538601</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-47.895338134117601</v>
       </c>
@@ -891,7 +894,7 @@
         <v>0.44731468735628599</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-66.120135073095298</v>
       </c>
@@ -932,7 +935,7 @@
         <v>1.4153829414475301</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>-55.783439809629201</v>
       </c>
@@ -973,7 +976,7 @@
         <v>-2.9687675691104198</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-54.017753980327697</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>1.15080355405102</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-60.272353693795303</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>0.96929901192184797</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-59.314794826229203</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>-2.3135550059386198</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>-62.919301362970003</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>0.53018288954807302</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-61.074673604946803</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>-2.0069984266645302</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>-60.4405814356913</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>-0.43543602384233498</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>-56.547434440526303</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>-2.3950455154228401</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>-57.157262597182402</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>-2.38927344232739</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>-59.072422230542301</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>-1.6098058186291799</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>-74.669113697566303</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>-2.43917014220479</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>-76.843246077724203</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>-0.96044294070473801</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>-51.789279962039899</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>-1.0080568162883901</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>-49.653163074013399</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>-0.158622484246533</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-55.249664323909599</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>-0.88488044044597003</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>-60.489561611002898</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>-0.67562652349671404</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>-58.383421784192002</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>-0.29846483979322103</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>-68.013031685426199</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>-1.0733669741459799</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>-70.008556703089894</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>-1.2602534917066099</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>-64.576757970837207</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>-0.98995837081330595</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>-71.325642971528893</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>-2.4910340276967</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>-75.784234668471896</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>-1.2178089925820701</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>-61.340285306967701</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>-0.38336962026384702</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>-62.693928522536503</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>-1.69473634611637</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>-48.505246358848098</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>-0.69486054035992095</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>-60.510361480234899</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>-1.0269534428345</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>-47.259398992155504</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>-2.21028222340624</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>-114.990385010851</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>-1.1072950348678701</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>-48.472877883952897</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>-3.2925808392646099</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>-66.912143825901296</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>-0.47249056984777299</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>-79.924037749080497</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>-1.89660825451558</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>-87.514430639765393</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>0.27570312030828897</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>-60.662619676899801</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>0.53043434431091896</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>-76.780989246328403</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>-1.4083174737697099</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>-59.3892455571008</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>0.179034624706019</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>-91.682033272615797</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>-1.0941491730668</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>-52.1863569089451</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>-1.95922041199867</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>-59.750557940590603</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>-0.34125604586070502</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>-58.649365988227899</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>-3.11898008119238</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>-59.172323525183202</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>-3.3919410041754298E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>-50.381629255291401</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>-0.923232077645604</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>-50.758109580804998</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>0.19382974957603999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>-49.618878778175301</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>-0.52524689928410395</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>-44.865464509981798</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>-0.96271537673358498</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>-60.349319961689197</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>-1.7572648982941499</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>-49.884271449089198</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>-0.63541917755049704</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>-51.167533290305698</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>0.45667601950571202</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>-83.847215688432698</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>8.6821491715802692E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>-80.689262002678902</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>-3.04822075689302</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>-82.588574482626697</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>1.73388048701722</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>-39.319472090012297</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>-1.45197396782062</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>-48.897934616041397</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>-0.70001195438792896</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>-63.712338591935399</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>-1.24440538037966</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>-80.980040192023594</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>-1.34309993318941</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>-46.1190194441714</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>-1.8488605933023099</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>-65.6189384976215</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>-2.5135083693356401</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>-46.250722923118602</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>-2.62623758370008</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>-51.5738864641663</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>-1.8706093339666301</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>-57.981386460723201</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>-2.1577366392667501</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>-58.567525172309999</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>-1.0560782516423499</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>-67.198749446579697</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>-2.7439834932859699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>-59.9204092348266</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>-2.18008467487277</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>-61.392889214293</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>-2.7287167655523601</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>-53.969040422619102</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>-9.1004043750952902E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>-63.3637083766952</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>-1.5264740267510399</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>-60.962950001515097</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>-2.2998506854043499</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>-61.347456539756699</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>-1.10984916516438</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>-47.738828132513497</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>-0.76657106389955298</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>-57.477091180092302</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>-1.2362569826413701</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>-69.747035821269094</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>-1.7438354888215799</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>-56.485568062827099</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>-2.2425491150305401</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>-76.406602094643901</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>0.76557484286300204</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>-72.799976121826106</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>0.33076278718407298</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>-105.89113358281099</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>-0.61120403826671199</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>-94.321082407416299</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>-1.15253744593525</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>-96.203268011412106</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>1.19422053000629</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>-61.065983871013898</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>-0.53292043289338598</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>-84.777232704146101</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>1.7770863847476699</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>-96.439420752392095</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>1.0146365219457201</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>-106.964562942931</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>0.85065574864647997</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>-89.4619873681184</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>0.44414116879222099</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>-56.869852364196802</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>-0.76501467568896198</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>-83.423993894177997</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>-0.92189716992482396</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>-83.970554192944306</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>1.13180089732199</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>-71.911856696552107</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>1.51004481304213</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>-85.701724755557805</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>-2.2378207853115999</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>-58.021888583657798</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>-1.53177298760881</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>-66.822786712482696</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>0.69041948012783605</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>-84.460865478213705</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>-1.14996792262987</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>-76.004183510876004</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>-0.70869984389848595</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>-71.336995579184403</v>
       </c>
@@ -4663,7 +4666,7 @@
         <v>-0.89215946155741999</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>-75.660125546090597</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>-0.603032226662364</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>-77.824800996471694</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>1.9408753962435299</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>-87.4172526849474</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>1.7715242897227099</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>-89.707132293125895</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>0.84550899881254105</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>-76.126831986345707</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>-0.50716824861481902</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>-69.891103198362003</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>-1.14342468667528</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>-88.579818812698903</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>0.73623870758903498</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>-61.486733643530101</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>1.91582857727433</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>-75.899967267722502</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>0.55630023078591095</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>-79.768901108364801</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>8.6217882617476801E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>-108.795699544231</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>-0.89671768868027002</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>-68.874589973556297</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>-0.58499863096991001</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>-111.627626906743</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>0.11448203539110401</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>-100.573633781488</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>-1.81916026886908</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>-84.472120944513193</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>-0.34469914317758599</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>-83.028821229916105</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>0.44997652281318801</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>-84.264688478774104</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>-0.53298753169477597</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>-50.411046986372199</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>-0.88092484513101899</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>-57.249302590694299</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>-1.0246980734579401</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>-67.165921237837694</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>-1.4793524030433201</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>-58.525732823614497</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>-2.1155922306933399</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>-45.190187701786598</v>
       </c>
@@ -5565,7 +5568,7 @@
         <v>-1.8682843428534099</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>-67.068049948962795</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>-1.1184952944466</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>-99.249844420704406</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>-0.982759982111723</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>-73.213032910423493</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>-0.77017111086816703</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>-99.107177777750707</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>-0.75032910892024995</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>-90.633232178120096</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>-1.3364153541322501</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>-96.569397221576395</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>-0.136316400114181</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>-88.710084002166894</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>0.54402064519466298</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>-69.936800924720998</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>-0.16262224256344199</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>-64.716494266693701</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>0.64346871869755395</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>-59.765423942899098</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>1.4677040893159701</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>-63.334860561644298</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>1.33425281393421</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>-76.2744105188888</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>1.0795128424423199</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>-62.267082382397497</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>6.3577910185606407E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>-86.484314682865502</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>-0.175514878176252</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>-71.639770786258197</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>-0.14434980267019901</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>-72.689761756034102</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>-1.35057288478233</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>-97.191457098578098</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>-3.2640152276611998</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>-63.707449064463603</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>-0.961830061990678</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>-75.444839398262403</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>-1.9810692258178999</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>-76.077473196292104</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>0.71149033303668996</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>-90.003931598250901</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>1.22835171241661E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>-87.373487582933507</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>0.72446512611518799</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>-94.833887423760203</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>1.32896008978832</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>-84.220875749796406</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>0.95912257549064905</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>-87.700951934946005</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>-2.8696061222620299</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>-61.488660104604101</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>1.66989045220251</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>-94.876981485017694</v>
       </c>
@@ -6672,7 +6675,7 @@
         <v>-0.814319866010075</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>-95.067262614507598</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>-0.57046116939337399</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>-64.026199293564304</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>1.4134188551748099</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>-96.1430956470995</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>-1.9650726513363299</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>-68.891372196750396</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>0.97379198601916905</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>-75.891504556131295</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>-0.93218249282593502</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>-78.915074941947495</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>0.52809407443527101</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>-68.854867566362401</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>0.42352356069209801</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>-79.386520127754295</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>-0.56647802612823694</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>-61.611092669237401</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>-1.1179381769404599</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>-60.826110524437297</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>-2.7593262197020501E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>-75.635529225325797</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>-1.0269178750008401</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>-68.609777150075402</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>-2.87159755180789</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>-95.815342034498997</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>-0.43103807244263098</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>-87.655545134730104</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>-0.461281682994862</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>-162.26892660654701</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>-1.28961296619076</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>-55.034251933577401</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>0.90056722517074905</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>-65.735837148191806</v>
       </c>
@@ -7369,7 +7372,7 @@
         <v>-0.111332807941789</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>-53.193173788714901</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>-0.65511160206378105</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>-71.043592828092699</v>
       </c>
@@ -7451,7 +7454,7 @@
         <v>1.8338676223205901</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>-71.8487905046874</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>0.24641985087978999</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>-66.564172029729406</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>0.39053026134540297</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>-74.819559070120405</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>-1.0563211733208799</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>-65.173934001443698</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>1.3694413529909899</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>-71.452123007630107</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>0.92185985926652902</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>-59.713208014985</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>-0.98134755865263701</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>-57.530910262288501</v>
       </c>
@@ -7738,7 +7741,7 @@
         <v>-0.54582908053180401</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>-56.203235775960998</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>-4.5691231970819098E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>-61.8709567657883</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>1.81117729783776</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>-55.367416387235899</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>0.28377330073668999</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>-57.043817457610899</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>0.26055910450304698</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>-56.4237976663401</v>
       </c>
@@ -7943,7 +7946,7 @@
         <v>-0.21672538364824101</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>-57.020409378137003</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>1.32273075547871</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>-69.9408126755919</v>
       </c>
@@ -8025,7 +8028,7 @@
         <v>7.1774658444491796E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>-53.998412835309097</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>-1.9784025963829901</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>-47.111353381296396</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>0.78528732922578304</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>-43.504300973359904</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>-6.4780351268304906E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>-37.491769448707103</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>0.600176523610777</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>-47.040275086156399</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>-0.40017410145784899</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>-62.200014942439601</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>-3.3631519123500202</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>-66.121869601891504</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>-1.1376221936741</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>-78.243594746451507</v>
       </c>
@@ -8353,7 +8356,7 @@
         <v>-2.10640558284658</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>-66.630989908740901</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>1.0230609607394201</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>-50.9014970245995</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>0.55678508371081004</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>-69.759319972773994</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>1.50543413690155</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>-54.6274501629741</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>0.13532755906552599</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>-59.008185351826697</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>0.86882505758918804</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>-53.6698097228184</v>
       </c>
@@ -8599,7 +8602,7 @@
         <v>-0.59101483769188801</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>-55.120274195152902</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>-0.328159024216647</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>-36.019597591430397</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>1.9712192524532799</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>-85.291035432679493</v>
       </c>
@@ -8722,7 +8725,7 @@
         <v>1.1043093893251399</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>-72.923394678610606</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>-1.0603557623889901</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>-48.591817356175603</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>-0.32224056086875702</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>-60.402283789650902</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>-0.736836075348269</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>-60.914302363374503</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>-0.107489781463218</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>-81.426719922605201</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>0.21187720956160799</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>-66.660568907296295</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>1.24765873190712</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>-64.363375800107804</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>-0.69775928231497397</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>-57.811347397053801</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>0.69962655266182505</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>-92.924604206652504</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>-0.20022137134663701</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>-51.664773920170198</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>1.7444061480142601</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>-55.537602408049601</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>-1.07019001159784</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>-70.495392301206095</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>-0.55094533849751204</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>-53.802313389368699</v>
       </c>
@@ -9255,7 +9258,7 @@
         <v>-0.81052834557572795</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>-44.906088430517997</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>0.456893059563662</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>-61.567368243439702</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>-0.55544215710530798</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>-70.736274844583804</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>0.45374896886121302</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>-82.834035518221796</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>0.17114586063123399</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>-85.539379309182493</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>1.9005421044938402E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>-66.822531109634198</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>-1.9437000173283499E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>-56.294388036383303</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>2.0565814461307701</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>-57.7592415100087</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>0.49260555938064299</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>-71.291912008219896</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>-0.97214898864549204</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>-60.306219759263897</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>0.98041063288504304</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>-66.983503848340504</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>-0.30574036593916298</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>-52.035778238884802</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>-6.0454886298791699E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>-59.335270506621903</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>-1.63195301979836</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>-64.837980496000199</v>
       </c>
@@ -9829,7 +9832,7 @@
         <v>-0.73667739819066103</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>-68.283298605562393</v>
       </c>
@@ -9870,7 +9873,7 @@
         <v>-0.32739257451679499</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>-66.252037450763297</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>-1.95533960671994</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>-75.323878904291803</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>-2.3938053649139799</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>-62.100296154367101</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>-0.95713840817575802</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>-69.392364934055607</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>-2.0600140608399302</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>-55.833948021233802</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>0.214507021989225</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>-41.495310294037203</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>-0.455875417332051</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>-57.046745977134101</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>-0.23230883444044501</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>-49.979849962835303</v>
       </c>
@@ -10198,7 +10201,7 @@
         <v>-1.9462473559197899</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>-58.443144447837497</v>
       </c>
@@ -10239,7 +10242,7 @@
         <v>-0.786996075894144</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>-53.384870547897997</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>0.90244743054619203</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>-47.380424226309799</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>-3.4755466974066</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>-84.626943704678396</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>-1.4178598061171701</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>-52.455823809317998</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>-1.83258714977297</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>-87.662593538132597</v>
       </c>
@@ -10444,7 +10447,7 @@
         <v>-0.80879951513614501</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>-83.866106421212507</v>
       </c>
@@ -10485,7 +10488,7 @@
         <v>-7.7489421325256796E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>-58.216125535486697</v>
       </c>
@@ -10526,7 +10529,7 @@
         <v>-1.7912672094926401</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>-50.928654991944001</v>
       </c>
@@ -10567,7 +10570,7 @@
         <v>2.2523269351973498</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>-73.027771507594295</v>
       </c>
@@ -10608,7 +10611,7 @@
         <v>1.38024846469822</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>-51.903741070125697</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>1.4628974144195199</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>-59.480062666052604</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>1.59702525310277</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>-46.932108046568999</v>
       </c>
@@ -10731,7 +10734,7 @@
         <v>-1.9034319717463399</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>-54.108777790300998</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>-3.0406897517333</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>-53.315687529667997</v>
       </c>
@@ -10813,7 +10816,7 @@
         <v>-0.75956109469393696</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>-52.349468211108103</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>1.8005422015608099</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>-38.893878933916902</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>-1.01438936902067</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>-50.277954751229402</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>-1.6695652281687801</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>-68.782179306924604</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>-0.26385079106692</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>-56.026049528446002</v>
       </c>
@@ -11018,7 +11021,7 @@
         <v>-0.81794399669074602</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>-68.2828512254857</v>
       </c>
@@ -11059,7 +11062,7 @@
         <v>-2.8012453242381801</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>-66.124542412175501</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>-2.5519535750867899</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>-61.773783639821801</v>
       </c>
@@ -11141,7 +11144,7 @@
         <v>1.30001630896545</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>-58.639014549061699</v>
       </c>
@@ -11182,7 +11185,7 @@
         <v>-0.38604337326507099</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>-65.859585979007093</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>0.14281318630527901</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>-71.2374931993606</v>
       </c>
@@ -11264,7 +11267,7 @@
         <v>-1.4447635839926101</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>-67.769136459390893</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>0.40519464188815202</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>-61.851261104388897</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>-1.0006597897477501</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>-65.543364437663499</v>
       </c>
@@ -11387,7 +11390,7 @@
         <v>1.32857482281177</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>-67.314965867738906</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>0.55609811355083505</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>-54.395488338953299</v>
       </c>
@@ -11469,7 +11472,7 @@
         <v>-2.5285874011921599</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>-74.533664793981401</v>
       </c>
@@ -11510,7 +11513,7 @@
         <v>-0.28447063542587803</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>-48.719772036437398</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>1.4274253922806599</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>-69.0818416916796</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>2.8029834196140402</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>-68.710943670854505</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>0.53119544707061594</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>-58.460898822687902</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>-5.9816331120675803E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>-68.942459243778501</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>-0.59641037378509199</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>-59.1097390081529</v>
       </c>
@@ -11756,7 +11759,7 @@
         <v>-1.13101198662464</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>-75.643851399338701</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>0.70407584764809295</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>-51.203399899282303</v>
       </c>
@@ -11838,7 +11841,7 @@
         <v>-0.58794153688579498</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>-60.458058491170704</v>
       </c>
@@ -11879,7 +11882,7 @@
         <v>0.80749420137209404</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>-58.505904714324799</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>-1.9523425481339001</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>-57.728372282689797</v>
       </c>
@@ -11961,7 +11964,7 @@
         <v>-1.80698277774474</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>-48.737899456776901</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>0.41612086718087699</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>-63.555511905491798</v>
       </c>
@@ -12043,7 +12046,7 @@
         <v>1.1277952758857701</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>-55.787795665231599</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>1.61357227708975</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>-82.866178472715703</v>
       </c>
@@ -12125,7 +12128,7 @@
         <v>1.5254703956556801</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>-64.626103514343399</v>
       </c>
@@ -12166,7 +12169,7 @@
         <v>-1.27710743638961</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>-70.1246720549521</v>
       </c>
@@ -12207,7 +12210,7 @@
         <v>-1.1249536300295</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>-74.024624455696696</v>
       </c>
@@ -12248,7 +12251,7 @@
         <v>-0.54552151313350195</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>-81.501646624420601</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>0.44477853411111601</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>-52.611379268135899</v>
       </c>
@@ -12330,7 +12333,7 @@
         <v>-1.6244042313754199</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>-67.994503951971694</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>-0.54068625135807202</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>-71.665925538505107</v>
       </c>
@@ -12412,7 +12415,7 @@
         <v>0.37727595038580303</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>-76.975791293666106</v>
       </c>
@@ -12453,7 +12456,7 @@
         <v>-0.39000002439147002</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>-78.905605601173605</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>-1.7823255860196101</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>-59.323317495622703</v>
       </c>
@@ -12535,7 +12538,7 @@
         <v>-1.5091972404065099</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>-79.711805304437604</v>
       </c>
@@ -12576,7 +12579,7 @@
         <v>0.40455811921301899</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>-60.239868096378402</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>-1.52335583221333</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>-67.099558569185803</v>
       </c>
@@ -12658,7 +12661,7 @@
         <v>-0.30540481565393601</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>-76.3012857582751</v>
       </c>
@@ -12699,7 +12702,7 @@
         <v>-1.0462668817890499</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>-68.800261181233097</v>
       </c>
@@ -12740,7 +12743,7 @@
         <v>-0.66600565423036995</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>-79.369275591746401</v>
       </c>
@@ -12781,7 +12784,7 @@
         <v>-1.3892608192626399</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>-60.449679266529202</v>
       </c>
@@ -12822,7 +12825,7 @@
         <v>-2.8919841099521602</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>-72.770296315473999</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>-2.3441304884397701E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>-65.872016570161307</v>
       </c>
@@ -12904,7 +12907,7 @@
         <v>1.1122754065403599</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>-50.7496527279011</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>-3.500107673779</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>-93.746981236964899</v>
       </c>
@@ -12986,7 +12989,7 @@
         <v>1.97223972599831</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>-66.065752491232104</v>
       </c>
@@ -13027,7 +13030,7 @@
         <v>-0.486738029814414</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>-71.190762612817593</v>
       </c>
@@ -13068,7 +13071,7 @@
         <v>-1.63409083840293</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>-65.644177167363907</v>
       </c>
@@ -13109,7 +13112,7 @@
         <v>-1.6240128227244099</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>-52.054361108699098</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>-1.5785937954190401</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>-66.872091227407097</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>-0.29387764716230602</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>-65.102970548769406</v>
       </c>
@@ -13232,7 +13235,7 @@
         <v>-0.55521969688404305</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>-61.989059334300599</v>
       </c>
@@ -13273,7 +13276,7 @@
         <v>-0.123226813017628</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>-69.818613163546601</v>
       </c>
@@ -13314,7 +13317,7 @@
         <v>-1.13393339655843</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>-63.621890581121697</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>-1.06227612333223</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>-52.215948407554301</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>-2.8220900837590102</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>-73.458577269470595</v>
       </c>
@@ -13437,7 +13440,7 @@
         <v>-1.4679404668754501</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>-61.221065213739301</v>
       </c>
@@ -13478,7 +13481,7 @@
         <v>-1.74872122147901</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>-58.669029418858599</v>
       </c>
@@ -13519,7 +13522,7 @@
         <v>-1.0790173312946101</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>-57.227960798335097</v>
       </c>
@@ -13560,7 +13563,7 @@
         <v>-2.8619204894783099</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>-75.759014402386299</v>
       </c>
@@ -13601,7 +13604,7 @@
         <v>0.992840232878903</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>-55.558026888290399</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>-3.1389823824295702</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>-74.994410748889393</v>
       </c>
@@ -13683,7 +13686,7 @@
         <v>0.94118792421715702</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>-58.656641873684798</v>
       </c>
@@ -13724,7 +13727,7 @@
         <v>-1.77297259663088</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>-58.6924981339859</v>
       </c>
@@ -13765,7 +13768,7 @@
         <v>0.91969288860120801</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>-60.471393885893498</v>
       </c>
@@ -13806,7 +13809,7 @@
         <v>-2.7066053776985699</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>-47.584163377423003</v>
       </c>
@@ -13847,7 +13850,7 @@
         <v>-1.5130314395436399</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>-63.587313234954301</v>
       </c>
@@ -13888,7 +13891,7 @@
         <v>-1.26202661977154</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>-49.310913357885298</v>
       </c>
@@ -13929,7 +13932,7 @@
         <v>-2.8630642897852399</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>-47.451663173042299</v>
       </c>
@@ -13970,7 +13973,7 @@
         <v>-1.1201262024516001</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>-56.892949122089199</v>
       </c>
@@ -14011,7 +14014,7 @@
         <v>0.58020912911592104</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>-56.546868708948402</v>
       </c>
@@ -14052,7 +14055,7 @@
         <v>0.85723126082191603</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>-61.816595655129099</v>
       </c>
@@ -14093,7 +14096,7 @@
         <v>-1.0455149495765601</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>-52.0780444520516</v>
       </c>
@@ -14134,7 +14137,7 @@
         <v>-0.63856281084668998</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>-48.697860626149698</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>-1.1261486157229399</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>-62.215423264226601</v>
       </c>
@@ -14216,7 +14219,7 @@
         <v>-8.3371813243365997E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>-52.956353602774598</v>
       </c>
@@ -14257,7 +14260,7 @@
         <v>-2.4244368929837599</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>-59.584771779577899</v>
       </c>
@@ -14298,7 +14301,7 @@
         <v>-1.59499678873312</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>-50.307889464113302</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>-3.72611574382102</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>-52.823062225737203</v>
       </c>
@@ -14380,7 +14383,7 @@
         <v>-1.62278215806717</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>-55.085696499168797</v>
       </c>
@@ -14421,7 +14424,7 @@
         <v>-0.98176762352882796</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>-65.552472095525005</v>
       </c>
@@ -14462,7 +14465,7 @@
         <v>9.9483302783692495E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>-62.4422355108359</v>
       </c>
@@ -14503,7 +14506,7 @@
         <v>-0.86264461667275905</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>-47.4605537613417</v>
       </c>
@@ -14544,7 +14547,7 @@
         <v>-1.7812557096203301</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>-61.747876336103403</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>0.338951858978566</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>-53.954494486841703</v>
       </c>
@@ -14626,7 +14629,7 @@
         <v>0.461798806664665</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>-41.079046020818403</v>
       </c>
@@ -14667,7 +14670,7 @@
         <v>-2.02431721144296</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>-57.978895444624001</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>2.11713881701285</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>-54.048306987155399</v>
       </c>
@@ -14749,7 +14752,7 @@
         <v>-0.68541624622586395</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>-54.012742461360702</v>
       </c>
@@ -14790,7 +14793,7 @@
         <v>-0.45934683149139399</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>-59.7284416455608</v>
       </c>
@@ -14831,7 +14834,7 @@
         <v>1.7344697366739199</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>-56.350860205212498</v>
       </c>
@@ -14872,7 +14875,7 @@
         <v>-1.69298758341598</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>-56.643395585060702</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>0.61277811212635402</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>-58.906958502364198</v>
       </c>
@@ -14954,7 +14957,7 @@
         <v>-1.68075973150194</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>-67.921106096646298</v>
       </c>
@@ -14995,7 +14998,7 @@
         <v>-1.0770410672979101E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>-59.644898789933499</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>-1.2724300455686799</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>-60.728182179427101</v>
       </c>
@@ -15077,7 +15080,7 @@
         <v>0.19476724150253799</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>-47.8766406040939</v>
       </c>
@@ -15118,7 +15121,7 @@
         <v>-1.3649511515234101</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>-49.387781261549698</v>
       </c>
@@ -15159,7 +15162,7 @@
         <v>-2.0074310184542901</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>-52.842116466815398</v>
       </c>
@@ -15200,7 +15203,7 @@
         <v>-1.70128888737623</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>-55.6683908363607</v>
       </c>
@@ -15241,7 +15244,7 @@
         <v>-1.98821790738851</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>-55.006842770166799</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>-1.39997738270217</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>-60.760844565745003</v>
       </c>
@@ -15323,7 +15326,7 @@
         <v>-1.88365333799449</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>-61.803519886625701</v>
       </c>
@@ -15364,7 +15367,7 @@
         <v>-2.7531461009243401</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>-62.122175672608201</v>
       </c>
@@ -15405,7 +15408,7 @@
         <v>-1.4336740543370901</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>-57.119716546244597</v>
       </c>
@@ -15446,7 +15449,7 @@
         <v>-2.8209501890191602</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>-70.401964986434905</v>
       </c>
@@ -15487,7 +15490,7 @@
         <v>-0.82431065901025602</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>-51.534491884727203</v>
       </c>
@@ -15528,7 +15531,7 @@
         <v>-1.13183709245117</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>-64.260020542628197</v>
       </c>
@@ -15569,7 +15572,7 @@
         <v>0.31152278584830101</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>-72.285672294895207</v>
       </c>
@@ -15610,7 +15613,7 @@
         <v>-0.59753112642991102</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>-48.105017872284002</v>
       </c>
@@ -15651,7 +15654,7 @@
         <v>0.114660726432929</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>-49.448388712759098</v>
       </c>
@@ -15692,7 +15695,7 @@
         <v>-2.83302939723221</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>-69.895901433213098</v>
       </c>
@@ -15733,7 +15736,7 @@
         <v>0.124239163517311</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>-53.355077936181601</v>
       </c>
@@ -15774,7 +15777,7 @@
         <v>-0.59870465779324999</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>-59.552897404455798</v>
       </c>
@@ -15815,7 +15818,7 @@
         <v>-1.55487182231392</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>-43.119710306049001</v>
       </c>
@@ -15856,7 +15859,7 @@
         <v>-1.33201256262572</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>-55.565778947146299</v>
       </c>
@@ -15897,7 +15900,7 @@
         <v>1.26960907320195</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>-50.177941915478698</v>
       </c>
@@ -15938,7 +15941,7 @@
         <v>0.84965821023751398</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>-69.462078935801998</v>
       </c>
@@ -15979,7 +15982,7 @@
         <v>0.96516161883530005</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>-68.767993185113596</v>
       </c>
@@ -16020,7 +16023,7 @@
         <v>1.08115205050845</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>-62.5625279935091</v>
       </c>
@@ -16061,7 +16064,7 @@
         <v>-1.3167733514789799</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>-58.739923587414197</v>
       </c>
@@ -16102,7 +16105,7 @@
         <v>0.68334007829252597</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>-71.548614954825297</v>
       </c>
@@ -16143,7 +16146,7 @@
         <v>0.80221696048094404</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>-50.380670134234101</v>
       </c>
@@ -16184,7 +16187,7 @@
         <v>0.30493650160757302</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>-48.043305103678399</v>
       </c>
@@ -16225,7 +16228,7 @@
         <v>-2.0029847319251499</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>-64.873177574586293</v>
       </c>
@@ -16266,7 +16269,7 @@
         <v>-1.48397572996286</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>-57.181842463969701</v>
       </c>
@@ -16307,7 +16310,7 @@
         <v>-1.6916508948045601</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>-58.205293744964301</v>
       </c>
@@ -16348,7 +16351,7 @@
         <v>-1.78398550390515</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>-67.735912487387196</v>
       </c>
@@ -16389,7 +16392,7 @@
         <v>-0.71989024857775197</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>-62.8486948647815</v>
       </c>
@@ -16430,7 +16433,7 @@
         <v>0.58474515525834903</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>-54.183116276316198</v>
       </c>
@@ -16471,7 +16474,7 @@
         <v>-0.72561544932827904</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>-68.839186971976602</v>
       </c>
@@ -16512,7 +16515,7 @@
         <v>0.10640443373014701</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>-54.1009932115578</v>
       </c>
@@ -16553,7 +16556,7 @@
         <v>-2.8778543509186201</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>-52.388606592840098</v>
       </c>
@@ -16594,7 +16597,7 @@
         <v>-0.65207755436485204</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>-49.043865978071203</v>
       </c>
@@ -16635,7 +16638,7 @@
         <v>-0.35848590165925098</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>-66.954412688764904</v>
       </c>
@@ -16676,7 +16679,7 @@
         <v>0.34139551849159799</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>-55.2246276036037</v>
       </c>
@@ -16717,7 +16720,7 @@
         <v>1.67743429100085</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>-62.424187091488598</v>
       </c>
@@ -16758,7 +16761,7 @@
         <v>-1.0814966203979299</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>-57.852975057895499</v>
       </c>
@@ -16799,7 +16802,7 @@
         <v>-0.28157085195403497</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>-53.677382277686199</v>
       </c>
@@ -16840,7 +16843,7 @@
         <v>-0.72685478540247495</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>-59.121747792550202</v>
       </c>
@@ -16881,7 +16884,7 @@
         <v>-0.38890276133635499</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>-53.8337794930112</v>
       </c>
@@ -16922,7 +16925,7 @@
         <v>-0.86963505660351104</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>-68.638840375569899</v>
       </c>
@@ -16963,7 +16966,7 @@
         <v>-1.1919258508624699</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>-48.672794214320199</v>
       </c>
@@ -17004,7 +17007,7 @@
         <v>-0.88999565230486599</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>-70.038819891549693</v>
       </c>
@@ -17045,7 +17048,7 @@
         <v>1.0023440995378901</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>-64.998304991846894</v>
       </c>
@@ -17086,7 +17089,7 @@
         <v>0.44286519794249302</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>-50.3117082583125</v>
       </c>
@@ -17127,7 +17130,7 @@
         <v>-2.2080377170643599</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>-65.822806885491403</v>
       </c>
@@ -17168,7 +17171,7 @@
         <v>-1.0807806249295</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>-61.971435205280599</v>
       </c>
@@ -17209,7 +17212,7 @@
         <v>-0.21420668322481901</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>-53.181469133963098</v>
       </c>
@@ -17250,7 +17253,7 @@
         <v>-1.09224155103787</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>-64.981027414005595</v>
       </c>
@@ -17291,7 +17294,7 @@
         <v>0.64628593315966998</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>-52.116179860505</v>
       </c>
@@ -17332,7 +17335,7 @@
         <v>1.05499429958521</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>-56.993944250694298</v>
       </c>
@@ -17373,7 +17376,7 @@
         <v>-1.6252280787675899</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>-64.328789960217406</v>
       </c>
@@ -17414,7 +17417,7 @@
         <v>1.6170174037553899</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>-68.001271248248003</v>
       </c>
@@ -17455,7 +17458,7 @@
         <v>0.745860661774016</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>-68.469129534644907</v>
       </c>
@@ -17496,7 +17499,7 @@
         <v>3.1393984717806599E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>-78.285475776125097</v>
       </c>
@@ -17537,7 +17540,7 @@
         <v>-0.17794985709625299</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>-75.627371050990703</v>
       </c>
@@ -17578,7 +17581,7 @@
         <v>-6.6201999788330301E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>-74.274641084018199</v>
       </c>
@@ -17619,7 +17622,7 @@
         <v>0.126421391760519</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>-55.234732637581303</v>
       </c>
@@ -17660,7 +17663,7 @@
         <v>1.03739577766091</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>-106.994170974574</v>
       </c>
@@ -17701,7 +17704,7 @@
         <v>0.89390490191607097</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>-270.76665160855401</v>
       </c>
@@ -17742,7 +17745,7 @@
         <v>0.53043314417813103</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>-70.009163474848805</v>
       </c>
@@ -17783,7 +17786,7 @@
         <v>-3.0649045803002402</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>-71.271424842906399</v>
       </c>
@@ -17824,7 +17827,7 @@
         <v>-0.67165241575481704</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>-75.788531502671205</v>
       </c>
@@ -17865,7 +17868,7 @@
         <v>0.51166039346368397</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>-92.208071903240693</v>
       </c>
@@ -17906,7 +17909,7 @@
         <v>-0.27119746390954802</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>-76.282957311910593</v>
       </c>
@@ -17947,7 +17950,7 @@
         <v>0.65048154480236697</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>-53.391507407349401</v>
       </c>
@@ -17988,7 +17991,7 @@
         <v>-3.5852681980745502</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>-71.848279352997594</v>
       </c>
@@ -18029,7 +18032,7 @@
         <v>3.4152918231398197E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>-69.654042845162095</v>
       </c>
@@ -18070,7 +18073,7 @@
         <v>-3.3490840232532801</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>-111.517351294948</v>
       </c>
@@ -18111,7 +18114,7 @@
         <v>-0.49001135488001601</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>-70.030279359153695</v>
       </c>
@@ -18152,7 +18155,7 @@
         <v>0.85429924487960696</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>-69.436646217801794</v>
       </c>
@@ -18193,7 +18196,7 @@
         <v>-1.5002656205631499</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>-88.403950266024495</v>
       </c>
@@ -18234,7 +18237,7 @@
         <v>-0.383177367810351</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>-76.018938658615596</v>
       </c>
@@ -18275,7 +18278,7 @@
         <v>1.6099598287752399</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>-71.3116132885079</v>
       </c>
@@ -18316,7 +18319,7 @@
         <v>-0.75170276776566503</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>-61.363530985314902</v>
       </c>
@@ -18357,7 +18360,7 @@
         <v>-0.85194662616291095</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>-69.853399790387897</v>
       </c>
@@ -18398,7 +18401,7 @@
         <v>-0.12021646884890699</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>-79.015306889522293</v>
       </c>
@@ -18439,7 +18442,7 @@
         <v>-0.79919578643922096</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>-75.977419744398006</v>
       </c>
@@ -18480,7 +18483,7 @@
         <v>-1.77535741641373</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>-69.603989689050707</v>
       </c>
@@ -18521,7 +18524,7 @@
         <v>0.23704283622038699</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>-72.959376919376496</v>
       </c>
@@ -18562,7 +18565,7 @@
         <v>6.6571868988323596E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>-57.084535817609698</v>
       </c>
@@ -18603,7 +18606,7 @@
         <v>-0.380105384987174</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>-81.332007770552906</v>
       </c>
@@ -18644,7 +18647,7 @@
         <v>-2.0863451325522102</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>-69.994090042654904</v>
       </c>
@@ -18685,7 +18688,7 @@
         <v>-2.1442320825632</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>-54.227476593490799</v>
       </c>
@@ -18726,7 +18729,7 @@
         <v>-0.46967972364831301</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>-52.757280506326097</v>
       </c>
@@ -18767,7 +18770,7 @@
         <v>-0.141431269444249</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>-60.4866512121149</v>
       </c>
@@ -18808,7 +18811,7 @@
         <v>-0.45804420682314201</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>-66.121540238284993</v>
       </c>
@@ -18849,7 +18852,7 @@
         <v>0.76534285566490901</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>-65.010207160490097</v>
       </c>
@@ -18890,7 +18893,7 @@
         <v>-0.38668092197127502</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>-64.264520490110499</v>
       </c>
@@ -18931,7 +18934,7 @@
         <v>-0.52000999032365003</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>-73.467121264277907</v>
       </c>
@@ -18972,7 +18975,7 @@
         <v>1.29454597253018</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>-81.145293794789495</v>
       </c>
@@ -19013,7 +19016,7 @@
         <v>0.86271554501798597</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>-58.953090923479898</v>
       </c>
@@ -19054,7 +19057,7 @@
         <v>-2.8942100706060501</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>-93.936181302126698</v>
       </c>
@@ -19095,7 +19098,7 @@
         <v>-0.50707403003546103</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>-71.318098887829805</v>
       </c>
@@ -19136,7 +19139,7 @@
         <v>-0.68033350993801001</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>-100.08927205758199</v>
       </c>
@@ -19177,7 +19180,7 @@
         <v>-0.63103145289642304</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>-73.214418912278504</v>
       </c>
@@ -19218,7 +19221,7 @@
         <v>-0.51386483719537601</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>-67.493527347378404</v>
       </c>
@@ -19259,7 +19262,7 @@
         <v>0.976338133114939</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>-66.749018920027495</v>
       </c>
@@ -19300,7 +19303,7 @@
         <v>2.8019945354113398</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>-59.0231628967719</v>
       </c>
@@ -19341,7 +19344,7 @@
         <v>5.1384006365384698E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>-63.456209698743898</v>
       </c>
@@ -19382,7 +19385,7 @@
         <v>0.41942349561601899</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>-72.336220410527304</v>
       </c>
@@ -19423,7 +19426,7 @@
         <v>-0.204537738506085</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>-75.308510810669802</v>
       </c>
@@ -19464,7 +19467,7 @@
         <v>0.29501442679522699</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>-78.418900062673899</v>
       </c>
@@ -19505,7 +19508,7 @@
         <v>-0.41029026106515099</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>-78.9689974533145</v>
       </c>
@@ -19546,7 +19549,7 @@
         <v>-1.03620754735325E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>-69.494985082154102</v>
       </c>
@@ -19587,7 +19590,7 @@
         <v>0.60792775892461104</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>-65.875835827825</v>
       </c>
@@ -19628,7 +19631,7 @@
         <v>-0.98307297840323105</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>-62.7003493857801</v>
       </c>
@@ -19669,7 +19672,7 @@
         <v>0.61344633048819597</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>-81.653657632945993</v>
       </c>
@@ -19710,7 +19713,7 @@
         <v>1.6101572566912099</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>-76.294113239070796</v>
       </c>
@@ -19751,7 +19754,7 @@
         <v>-0.76972959234376603</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>-54.596681002067001</v>
       </c>
@@ -19792,7 +19795,7 @@
         <v>-2.9639978539692402</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>-63.688624117211397</v>
       </c>
@@ -19833,7 +19836,7 @@
         <v>0.42612032454646798</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>-64.283965187514099</v>
       </c>
@@ -19874,7 +19877,7 @@
         <v>-0.102646518366761</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>-69.888693569560601</v>
       </c>
@@ -19915,7 +19918,7 @@
         <v>-0.81690480997300796</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>-79.050798837114797</v>
       </c>
@@ -19956,7 +19959,7 @@
         <v>-0.82015140831498501</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>-61.1871660352354</v>
       </c>
@@ -19997,7 +20000,7 @@
         <v>-0.56692846359464499</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>-63.624110998747803</v>
       </c>
@@ -20038,7 +20041,7 @@
         <v>-1.4953303420604001</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>-54.997435448226199</v>
       </c>
@@ -20079,7 +20082,7 @@
         <v>-2.1644880992155402</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>-67.586345401261696</v>
       </c>
@@ -20120,7 +20123,7 @@
         <v>7.7739978196059004E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>-55.3571164727568</v>
       </c>
@@ -20161,7 +20164,7 @@
         <v>-1.4701712875726001</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>-73.962243924523406</v>
       </c>
@@ -20202,7 +20205,7 @@
         <v>-1.7083160861698401</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>-69.288154881674103</v>
       </c>
@@ -20243,7 +20246,7 @@
         <v>-1.6682128835459999</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>-65.380749042542206</v>
       </c>
@@ -20284,7 +20287,7 @@
         <v>-2.33747739116298</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>-59.526335081222101</v>
       </c>
@@ -20325,7 +20328,7 @@
         <v>-2.55186689643992</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>-82.746939590413703</v>
       </c>
@@ -20366,7 +20369,7 @@
         <v>-0.43599182955641003</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>-68.007984506156404</v>
       </c>
@@ -20407,7 +20410,7 @@
         <v>-2.4282829109727699</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>-56.880652657324703</v>
       </c>
@@ -20448,7 +20451,7 @@
         <v>-0.67109341162889402</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>-74.244798321337598</v>
       </c>
@@ -20489,7 +20492,7 @@
         <v>-9.6005127215976302E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>-67.744280540838204</v>
       </c>
@@ -20530,7 +20533,7 @@
         <v>-1.0685409600326501</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>-54.716914651225203</v>
       </c>
@@ -20571,7 +20574,7 @@
         <v>-0.88739531534865501</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>-79.8246587651021</v>
       </c>
@@ -20612,7 +20615,7 @@
         <v>-2.04141299414934</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>-70.526267758800799</v>
       </c>
@@ -20653,7 +20656,7 @@
         <v>-1.2871863686586</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>-67.912953279071004</v>
       </c>
@@ -20694,7 +20697,7 @@
         <v>-2.7285640136517402</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>-73.681509722773797</v>
       </c>
@@ -20735,7 +20738,7 @@
         <v>0.200061163836012</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>-66.219727607343799</v>
       </c>
@@ -20776,7 +20779,7 @@
         <v>-1.8665372686670101</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>-85.070794334040599</v>
       </c>
@@ -20817,7 +20820,7 @@
         <v>2.6211703416492999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>-76.127805536751097</v>
       </c>
@@ -20858,7 +20861,7 @@
         <v>-1.3568535698601401</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>-54.168003865070901</v>
       </c>
@@ -20899,7 +20902,7 @@
         <v>-0.68233438642274802</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>-62.783761400413603</v>
       </c>
@@ -20940,7 +20943,7 @@
         <v>-0.51183483268724805</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>-68.033411567513895</v>
       </c>
@@ -20981,7 +20984,7 @@
         <v>2.3190315038829699E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>-58.591306901022101</v>
       </c>
@@ -21022,7 +21025,7 @@
         <v>0.41679384597795999</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>-75.454495771488993</v>
       </c>
@@ -21063,7 +21066,7 @@
         <v>-2.61059914397556</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>-69.085925221757606</v>
       </c>
@@ -21104,7 +21107,7 @@
         <v>-0.98277078974809395</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>-105.85877180556901</v>
       </c>
@@ -21145,7 +21148,7 @@
         <v>0.22316480721641699</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>-77.701417716008507</v>
       </c>
@@ -21186,7 +21189,7 @@
         <v>-0.45518526977368101</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>-79.554076766729196</v>
       </c>
@@ -21227,7 +21230,7 @@
         <v>-0.53728377573303698</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>-89.997532258578602</v>
       </c>
@@ -21268,7 +21271,7 @@
         <v>-1.24848963002966</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>-73.617325020120106</v>
       </c>
@@ -21309,7 +21312,7 @@
         <v>-1.2554208198453201</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>-53.4383150824438</v>
       </c>
@@ -21350,7 +21353,7 @@
         <v>-2.3703368540573</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>-70.0369200692638</v>
       </c>
@@ -21391,7 +21394,7 @@
         <v>-0.78214262849002203</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>-78.448732659689696</v>
       </c>
@@ -21432,7 +21435,7 @@
         <v>-0.33611546701004302</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>-62.547807223671199</v>
       </c>
@@ -21473,7 +21476,7 @@
         <v>-1.1573808226687401</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>-75.064005385486595</v>
       </c>
@@ -21514,7 +21517,7 @@
         <v>-0.344122784485481</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>-75.269836926067697</v>
       </c>
@@ -21555,7 +21558,7 @@
         <v>1.72568590597667</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>-64.302088521521597</v>
       </c>
@@ -21596,7 +21599,7 @@
         <v>-1.2836280779976801</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>-52.139112400435202</v>
       </c>
@@ -21637,7 +21640,7 @@
         <v>-2.6904114429727102</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>-63.771801241284102</v>
       </c>
@@ -21678,7 +21681,7 @@
         <v>-0.14316831276133701</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>-61.733492502131597</v>
       </c>
@@ -21719,7 +21722,7 @@
         <v>0.16302373965157799</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>-48.564283658514299</v>
       </c>
@@ -21760,7 +21763,7 @@
         <v>0.87254660639481896</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>-68.321412145134801</v>
       </c>
@@ -21801,7 +21804,7 @@
         <v>0.28843735544924098</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>-72.319803849040298</v>
       </c>
@@ -21842,7 +21845,7 @@
         <v>-0.15961875371658499</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>-71.353749357841494</v>
       </c>
@@ -21883,7 +21886,7 @@
         <v>1.57722191003439E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>-68.649068557304005</v>
       </c>
@@ -21924,7 +21927,7 @@
         <v>0.172689148597862</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>-73.686776312072396</v>
       </c>
@@ -21965,7 +21968,7 @@
         <v>-1.14642145274914E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>-79.926366911173204</v>
       </c>
@@ -22006,7 +22009,7 @@
         <v>0.30464063099952199</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>-168.48214926923299</v>
       </c>
@@ -22047,7 +22050,7 @@
         <v>0.43716785520683299</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>-79.956887177146598</v>
       </c>
@@ -22088,7 +22091,7 @@
         <v>-0.467158032876903</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>-85.051792578245198</v>
       </c>
@@ -22129,7 +22132,7 @@
         <v>0.21688553755774501</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>-74.405614824946696</v>
       </c>
@@ -22170,7 +22173,7 @@
         <v>-3.1722494485930599E-4</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>-78.624539349358898</v>
       </c>
@@ -22211,7 +22214,7 @@
         <v>-0.75767506021007902</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>-50.496179550147602</v>
       </c>
@@ -22252,7 +22255,7 @@
         <v>-3.33256157635362</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>-64.419051849272805</v>
       </c>
@@ -22293,7 +22296,7 @@
         <v>-1.2034881258238901</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>-70.169656999331906</v>
       </c>
@@ -22334,7 +22337,7 @@
         <v>-1.59567830148557</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>-55.960635163328703</v>
       </c>
@@ -22375,7 +22378,7 @@
         <v>-1.8840537220608899</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>-77.329615449611197</v>
       </c>
@@ -22416,7 +22419,7 @@
         <v>-0.33852086248548202</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>-78.402125726113496</v>
       </c>
@@ -22457,7 +22460,7 @@
         <v>3.3698189251198198</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>-60.809367300999199</v>
       </c>
@@ -22498,7 +22501,7 @@
         <v>-1.2324387963054699</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>-62.1122101922453</v>
       </c>
@@ -22539,7 +22542,7 @@
         <v>-8.2505091607460099E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>-73.776042493440599</v>
       </c>
@@ -22580,7 +22583,7 @@
         <v>-0.41035765297947502</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>-70.925291856608297</v>
       </c>
@@ -22621,7 +22624,7 @@
         <v>-2.5695258353700599</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>-73.661126878563493</v>
       </c>
@@ -22662,7 +22665,7 @@
         <v>-1.2338265172182199</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>-79.478475998443997</v>
       </c>
@@ -22703,7 +22706,7 @@
         <v>-1.1833567999215</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>-73.012821609517701</v>
       </c>
@@ -22744,7 +22747,7 @@
         <v>-1.8462968537825499</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>-84.812390348734695</v>
       </c>
@@ -22785,7 +22788,7 @@
         <v>-0.61465486037813799</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>-77.888728087218695</v>
       </c>
@@ -22826,7 +22829,7 @@
         <v>-1.81252915040899</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>-70.110267160449894</v>
       </c>
@@ -22867,7 +22870,7 @@
         <v>-2.8488105482849502</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>-54.965297038580502</v>
       </c>
@@ -22908,7 +22911,7 @@
         <v>-2.3446013148170102</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>-62.6841810921605</v>
       </c>
@@ -22949,7 +22952,7 @@
         <v>-0.91348422393763395</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>-69.442565325165205</v>
       </c>
@@ -22990,7 +22993,7 @@
         <v>-1.0346977552026699</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>-71.2605870049006</v>
       </c>
@@ -23031,7 +23034,7 @@
         <v>-0.82488970957569696</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>-76.635515047037501</v>
       </c>
@@ -23072,7 +23075,7 @@
         <v>-0.35555222109850498</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>-59.2513067547834</v>
       </c>
@@ -23113,7 +23116,7 @@
         <v>-1.1581143861999199</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>-51.569923360770296</v>
       </c>
@@ -23154,7 +23157,7 @@
         <v>-1.04814674281519</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>-58.745825561608598</v>
       </c>
@@ -23195,7 +23198,7 @@
         <v>-1.4041951670364801</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>-76.494635434199395</v>
       </c>
@@ -23236,7 +23239,7 @@
         <v>-0.85335487058710302</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>-76.056802412439694</v>
       </c>
@@ -23277,7 +23280,7 @@
         <v>-0.57367419570047795</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>-69.335615202344698</v>
       </c>
@@ -23318,7 +23321,7 @@
         <v>2.0891126361387</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>-81.008795443788799</v>
       </c>
@@ -23359,7 +23362,7 @@
         <v>0.107193095004115</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>-67.997773455966893</v>
       </c>
@@ -23400,7 +23403,7 @@
         <v>-0.360070117862692</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>-77.047371371805298</v>
       </c>
@@ -23441,7 +23444,7 @@
         <v>-0.46878085150901799</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>-77.129049754346397</v>
       </c>
@@ -23482,7 +23485,7 @@
         <v>-0.781977113856822</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>-86.084499303790906</v>
       </c>
@@ -23523,7 +23526,7 @@
         <v>-0.46230162929523899</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>-65.488280543704207</v>
       </c>
@@ -23564,7 +23567,7 @@
         <v>-1.6252072657894701</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>-85.480531553122404</v>
       </c>
@@ -23605,7 +23608,7 @@
         <v>-0.47244303261253601</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>-93.045394986107695</v>
       </c>
@@ -23646,7 +23649,7 @@
         <v>1.2449044135251199</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>-94.2968700374349</v>
       </c>
@@ -23687,7 +23690,7 @@
         <v>-0.45154881967652899</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>-85.183234222330398</v>
       </c>
@@ -23728,7 +23731,7 @@
         <v>-1.3891866605221199</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>-78.575452133214199</v>
       </c>
@@ -23769,7 +23772,7 @@
         <v>-0.657441911000475</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>-69.315737215063393</v>
       </c>
@@ -23810,7 +23813,7 @@
         <v>-1.6508923001664599</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>-64.288651403220996</v>
       </c>
@@ -23851,7 +23854,7 @@
         <v>-0.94489787105480605</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>-62.5513125612758</v>
       </c>
@@ -23892,7 +23895,7 @@
         <v>-0.76804355408910896</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>-64.963597829308497</v>
       </c>
@@ -23933,7 +23936,7 @@
         <v>-1.11967812241871</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>-82.657689750593804</v>
       </c>
@@ -23974,7 +23977,7 @@
         <v>-3.8857925550523899E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>-71.428088678630601</v>
       </c>
@@ -24015,7 +24018,7 @@
         <v>-0.59153676858625004</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>-63.086153513340697</v>
       </c>
@@ -24056,7 +24059,7 @@
         <v>0.43109930215308001</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>-57.623529090687697</v>
       </c>
@@ -24097,7 +24100,7 @@
         <v>0.98050286498449601</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>-68.328411571909598</v>
       </c>
@@ -24138,7 +24141,7 @@
         <v>0.89016201216583002</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>-72.107857742633897</v>
       </c>
@@ -24179,7 +24182,7 @@
         <v>-1.1834514561132801</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>-71.344309186737405</v>
       </c>
@@ -24220,7 +24223,7 @@
         <v>-2.1357113052453101</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>-75.325690535010395</v>
       </c>
@@ -24261,7 +24264,7 @@
         <v>-0.15787531352686601</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>-73.730009951290697</v>
       </c>
@@ -24302,7 +24305,7 @@
         <v>-2.7740351144998798</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>-67.009551405881794</v>
       </c>
@@ -24343,7 +24346,7 @@
         <v>1.14336687961596</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>-82.713327630039998</v>
       </c>
@@ -24384,7 +24387,7 @@
         <v>-2.61020871166403</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>-81.788775991295793</v>
       </c>
@@ -24425,7 +24428,7 @@
         <v>-0.79653151792822496</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>-89.599146646524403</v>
       </c>
@@ -24466,7 +24469,7 @@
         <v>-1.7864603350872399</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>-75.217324328448399</v>
       </c>
@@ -24507,7 +24510,7 @@
         <v>-1.3587864350177901</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>-66.398916850495198</v>
       </c>
@@ -24548,7 +24551,7 @@
         <v>-0.58682441734938695</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>-93.204776216549604</v>
       </c>
@@ -24589,7 +24592,7 @@
         <v>-1.8470379971033299</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>-57.1137474678929</v>
       </c>
@@ -24630,7 +24633,7 @@
         <v>-1.1173654134009401</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>-49.180141353250598</v>
       </c>
@@ -24671,7 +24674,7 @@
         <v>-1.6685869032373899</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>-67.062903599569495</v>
       </c>
@@ -24712,7 +24715,7 @@
         <v>-2.1827793468543399</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>-82.057737214582005</v>
       </c>
@@ -24753,7 +24756,7 @@
         <v>-0.52698264816852003</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>-74.179163399403606</v>
       </c>
@@ -24794,7 +24797,7 @@
         <v>-0.45908903255274602</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>-193.31366133191801</v>
       </c>
@@ -24835,7 +24838,7 @@
         <v>0.42315130174062698</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>-46.031467567985899</v>
       </c>
@@ -24876,7 +24879,7 @@
         <v>-3.8340424801416999</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>-63.3228042548958</v>
       </c>
@@ -24917,7 +24920,7 @@
         <v>-1.8463088650747199</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>-63.035163686307499</v>
       </c>
@@ -24958,7 +24961,7 @@
         <v>-2.1448258768897501</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>-54.395279832333301</v>
       </c>
@@ -24999,7 +25002,7 @@
         <v>-1.1584548187205701</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>-69.376639714079303</v>
       </c>
@@ -25040,7 +25043,7 @@
         <v>-9.3901791585098995E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>-73.856223181379804</v>
       </c>
@@ -25081,7 +25084,7 @@
         <v>-0.85312787191819694</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>-64.251181391601094</v>
       </c>
@@ -25122,7 +25125,7 @@
         <v>0.66261994645821998</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>-57.552519011325302</v>
       </c>
@@ -25163,7 +25166,7 @@
         <v>1.0006405951878601</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>-83.559752291540605</v>
       </c>
@@ -25204,7 +25207,7 @@
         <v>-0.76489608604979697</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>-65.694371449926606</v>
       </c>
@@ -25245,7 +25248,7 @@
         <v>0.70085753551784802</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>-66.983281917044096</v>
       </c>
@@ -25286,7 +25289,7 @@
         <v>-1.65165767773064</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>-59.367042332976702</v>
       </c>
@@ -25327,7 +25330,7 @@
         <v>0.90035163723622103</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>-61.348675951874498</v>
       </c>
@@ -25368,7 +25371,7 @@
         <v>1.5037212716384201</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>-68.959581551687606</v>
       </c>
@@ -25409,7 +25412,7 @@
         <v>2.1690750112955302</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>-49.628466108202701</v>
       </c>
@@ -25450,7 +25453,7 @@
         <v>-1.5073810376805701</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>-60.926936512680101</v>
       </c>
@@ -25491,7 +25494,7 @@
         <v>-1.94107422551996</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>-70.738752376430099</v>
       </c>
@@ -25532,7 +25535,7 @@
         <v>-2.6959010262126299</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>-56.784878712892699</v>
       </c>
@@ -25573,7 +25576,7 @@
         <v>-0.70974845503848105</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>-53.668010118762702</v>
       </c>
@@ -25614,7 +25617,7 @@
         <v>-2.36542652851085</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>-61.777225878637701</v>
       </c>
@@ -25655,7 +25658,7 @@
         <v>-1.09942023829504</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>-62.976073105348704</v>
       </c>
@@ -25696,7 +25699,7 @@
         <v>0.39835839402336098</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>-64.5941519745748</v>
       </c>
@@ -25737,7 +25740,7 @@
         <v>-2.0843442641699901</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>-65.920779627509503</v>
       </c>
@@ -25778,7 +25781,7 @@
         <v>-0.34760274213660503</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>-67.652101788681307</v>
       </c>
@@ -25819,7 +25822,7 @@
         <v>-0.47515591114627198</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>-61.228360312280103</v>
       </c>
@@ -25860,7 +25863,7 @@
         <v>0.79705004557466497</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>-73.583997698943307</v>
       </c>
@@ -25901,7 +25904,7 @@
         <v>-1.6257276454328899</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>-57.546310964750298</v>
       </c>
@@ -25942,7 +25945,7 @@
         <v>-2.11686226536058</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>-76.406549604394101</v>
       </c>
@@ -25983,7 +25986,7 @@
         <v>0.92569483931476204</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>-79.784155891473802</v>
       </c>
@@ -26024,7 +26027,7 @@
         <v>-1.39623887849829</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>-54.6097646509226</v>
       </c>
@@ -26065,7 +26068,7 @@
         <v>-1.5928875501479001</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>-62.147237519415803</v>
       </c>
@@ -26106,7 +26109,7 @@
         <v>-0.96054975007990595</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>-55.210285771126102</v>
       </c>
@@ -26147,7 +26150,7 @@
         <v>-3.81355707942335</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>-52.935221855130301</v>
       </c>
@@ -26188,7 +26191,7 @@
         <v>-0.48132272672503201</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>-58.427157721678398</v>
       </c>
@@ -26229,7 +26232,7 @@
         <v>-0.52909705989613498</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>-44.0301865502502</v>
       </c>
@@ -26270,7 +26273,7 @@
         <v>-3.3367437451932998E-2</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>-75.330518770238896</v>
       </c>
@@ -26311,7 +26314,7 @@
         <v>0.27577661566673201</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>-67.858385224812594</v>
       </c>
@@ -26352,7 +26355,7 @@
         <v>-1.5638256316513</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>-72.669645122750296</v>
       </c>
@@ -26393,7 +26396,7 @@
         <v>0.62164475739769398</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>-59.390667247216903</v>
       </c>
@@ -26434,7 +26437,7 @@
         <v>1.73879633363922</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>-73.821342315503401</v>
       </c>
@@ -26475,7 +26478,7 @@
         <v>0.57184045401610595</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>-63.390122190204501</v>
       </c>
@@ -26516,7 +26519,7 @@
         <v>1.1456586605804899</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>-62.713665500921103</v>
       </c>
@@ -26557,7 +26560,7 @@
         <v>-1.1582303290246101</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>-64.323057413475595</v>
       </c>
@@ -26598,7 +26601,7 @@
         <v>-1.4389675826214801</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>-78.482213658730103</v>
       </c>
@@ -26639,7 +26642,7 @@
         <v>2.0484731865035799E-2</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>-56.836511587399897</v>
       </c>
@@ -26680,7 +26683,7 @@
         <v>0.43031293009064803</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>-54.3477286870448</v>
       </c>
@@ -26721,7 +26724,7 @@
         <v>-0.759796693354858</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>-63.750571668211002</v>
       </c>
@@ -26762,7 +26765,7 @@
         <v>-1.1720727175554</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>-68.677427779404695</v>
       </c>
@@ -26803,7 +26806,7 @@
         <v>1.16888171854586</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>-65.688840645116002</v>
       </c>
@@ -26844,7 +26847,7 @@
         <v>-0.90552485656169301</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>-65.906028438216794</v>
       </c>
@@ -26885,7 +26888,7 @@
         <v>1.56614285578657</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>-68.9906834884125</v>
       </c>
@@ -26926,7 +26929,7 @@
         <v>-2.1198907791821902</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>-69.474197748903094</v>
       </c>
@@ -26967,7 +26970,7 @@
         <v>0.400251451480304</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>-65.993579047854894</v>
       </c>
@@ -27008,7 +27011,7 @@
         <v>0.76994316589448397</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>-59.611736089819601</v>
       </c>
@@ -27049,7 +27052,7 @@
         <v>-0.55446451487118498</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>-65.844857378974496</v>
       </c>
@@ -27090,7 +27093,7 @@
         <v>-5.3952455169953499E-2</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>-75.2397315190223</v>
       </c>
@@ -27131,7 +27134,7 @@
         <v>-0.36887346630193402</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>-52.388237578082801</v>
       </c>
@@ -27172,7 +27175,7 @@
         <v>-0.72625451896139004</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>-55.316090379126898</v>
       </c>
@@ -27213,7 +27216,7 @@
         <v>-1.6511625745999701</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>-53.363565528635597</v>
       </c>
@@ -27254,7 +27257,7 @@
         <v>-0.73796543271767101</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>-60.230986601076303</v>
       </c>
@@ -27295,7 +27298,7 @@
         <v>1.9105545796746799E-2</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>-56.366917955406002</v>
       </c>
@@ -27336,7 +27339,7 @@
         <v>0.128911100248188</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>-72.131328737538894</v>
       </c>
@@ -27377,7 +27380,7 @@
         <v>-0.35692015803007698</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>-60.297308108009297</v>
       </c>
@@ -27418,7 +27421,7 @@
         <v>-2.1398074929940201</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>-65.132055780782494</v>
       </c>
@@ -27459,7 +27462,7 @@
         <v>0.490498798956437</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>-55.356737543361703</v>
       </c>
@@ -27500,7 +27503,7 @@
         <v>-1.0528657754797599</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>-60.287724900647703</v>
       </c>
@@ -27541,7 +27544,7 @@
         <v>-0.88213192821599595</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>-61.069518290246798</v>
       </c>
@@ -27582,7 +27585,7 @@
         <v>-4.35587262009298E-2</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>-66.033366241871903</v>
       </c>
@@ -27623,7 +27626,7 @@
         <v>-0.505990270842128</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>-70.455356623411205</v>
       </c>
@@ -27664,7 +27667,7 @@
         <v>-0.16086219727121601</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>-57.776076091236803</v>
       </c>
@@ -27705,7 +27708,7 @@
         <v>1.0388638361617599</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>-55.289035176933602</v>
       </c>
@@ -27746,7 +27749,7 @@
         <v>-1.38090863366814</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>-60.128919074561701</v>
       </c>
@@ -27787,7 +27790,7 @@
         <v>-0.140895432087288</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>-62.532056537369002</v>
       </c>
@@ -27828,7 +27831,7 @@
         <v>-1.6923147672430101</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>-73.410268368200605</v>
       </c>
@@ -27869,7 +27872,7 @@
         <v>-0.45494291793971797</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>-51.593771966046098</v>
       </c>
@@ -27910,7 +27913,7 @@
         <v>-2.2421449257453299</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>-60.328338067970499</v>
       </c>
@@ -27951,7 +27954,7 @@
         <v>-2.15913389408166</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>-60.429189130474001</v>
       </c>
@@ -27992,7 +27995,7 @@
         <v>-1.61601382696861</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>-53.342753211451701</v>
       </c>
@@ -28033,7 +28036,7 @@
         <v>-2.9021871695262802</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>-56.967110066619703</v>
       </c>
@@ -28074,7 +28077,7 @@
         <v>-1.91551190140768</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>-50.006064951246003</v>
       </c>
@@ -28115,7 +28118,7 @@
         <v>-1.2460809568387701</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>-52.517783101100903</v>
       </c>
@@ -28156,7 +28159,7 @@
         <v>-2.9823399146679499</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>-53.921167184158598</v>
       </c>
@@ -28197,7 +28200,7 @@
         <v>-1.94882409598372</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>-49.125017346352301</v>
       </c>
@@ -28238,7 +28241,7 @@
         <v>-0.71307170237038697</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>-187.708415459279</v>
       </c>
@@ -28279,7 +28282,7 @@
         <v>0.70244445951327605</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>-62.358084131196598</v>
       </c>
@@ -28320,7 +28323,7 @@
         <v>-1.63149056321399</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>-73.857050760341096</v>
       </c>
@@ -28361,7 +28364,7 @@
         <v>-1.2370724624185701</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>-54.290797692853097</v>
       </c>
@@ -28402,7 +28405,7 @@
         <v>-3.7719868439707498</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>-61.930003116482098</v>
       </c>
@@ -28443,7 +28446,7 @@
         <v>-1.6588827216891799</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>-72.733282907184304</v>
       </c>
@@ -28484,7 +28487,7 @@
         <v>0.35492271900203998</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>-77.188116269482506</v>
       </c>
@@ -28525,7 +28528,7 @@
         <v>-0.49271228001157702</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>-47.7752622522286</v>
       </c>
@@ -28566,7 +28569,7 @@
         <v>-2.1154872270837299</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>-57.360559856420103</v>
       </c>
@@ -28607,7 +28610,7 @@
         <v>0.16674815571249099</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>-44.617640991239902</v>
       </c>
@@ -28648,7 +28651,7 @@
         <v>-1.4700590169913199</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>-56.569165487142101</v>
       </c>
@@ -28689,7 +28692,7 @@
         <v>-0.127447428984647</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>-73.987424883085396</v>
       </c>
@@ -28730,7 +28733,7 @@
         <v>-0.72286240140414604</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>-69.692521104501196</v>
       </c>
@@ -28771,7 +28774,7 @@
         <v>0.61920927314924201</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>-50.674635193328797</v>
       </c>
@@ -28812,7 +28815,7 @@
         <v>-0.18217115382549401</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>-59.031071397223897</v>
       </c>
@@ -28853,7 +28856,7 @@
         <v>-0.95522722557013695</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>-50.483159939244601</v>
       </c>
@@ -28894,7 +28897,7 @@
         <v>-0.68902257635267194</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>-61.498627784907796</v>
       </c>
@@ -28935,7 +28938,7 @@
         <v>0.329199371176702</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>-64.867041567671606</v>
       </c>
@@ -28976,7 +28979,7 @@
         <v>-1.0144590815987999</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>-69.736743968895198</v>
       </c>
@@ -29017,7 +29020,7 @@
         <v>0.20088906277663299</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>-50.408912642901001</v>
       </c>
@@ -29058,7 +29061,7 @@
         <v>0.90205771759510101</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>-65.126187641933896</v>
       </c>
@@ -29099,7 +29102,7 @@
         <v>-0.76338888222866697</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>-69.857302745456906</v>
       </c>
@@ -29140,7 +29143,7 @@
         <v>-9.7701464882039707E-2</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>-59.607711088178</v>
       </c>
@@ -29181,7 +29184,7 @@
         <v>-0.21719208450642499</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>-62.051141246613199</v>
       </c>
@@ -29222,7 +29225,7 @@
         <v>0.35573847825636401</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>-74.436540172773206</v>
       </c>
@@ -29263,7 +29266,7 @@
         <v>-1.4106944025214601</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>-59.151677442645202</v>
       </c>
@@ -29304,7 +29307,7 @@
         <v>-1.1739854202005901E-2</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>-86.285782295466404</v>
       </c>
@@ -29345,7 +29348,7 @@
         <v>0.122924306242377</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>-56.468332130980798</v>
       </c>
@@ -29386,7 +29389,7 @@
         <v>0.93337155521411697</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>-51.359801016216998</v>
       </c>
@@ -29427,7 +29430,7 @@
         <v>1.31366785461753</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>-61.7536874415649</v>
       </c>
@@ -29468,7 +29471,7 @@
         <v>1.2213265242501401</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>-63.344632038069498</v>
       </c>
@@ -29509,7 +29512,7 @@
         <v>1.09294536414716</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>-71.513040050665893</v>
       </c>
@@ -29550,7 +29553,7 @@
         <v>-1.6918169334233299</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>-61.718681283587102</v>
       </c>
@@ -29591,7 +29594,7 @@
         <v>-0.74084522595693603</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>-62.850163159733199</v>
       </c>
@@ -29632,7 +29635,7 @@
         <v>-0.36312202574286701</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>-54.526029638131398</v>
       </c>
@@ -29673,7 +29676,7 @@
         <v>-0.31373077024643797</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>-51.987215934133602</v>
       </c>
@@ -29714,7 +29717,7 @@
         <v>-1.1986971722876301</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>-59.043766702486998</v>
       </c>
@@ -29755,7 +29758,7 @@
         <v>-0.402043718131053</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>-57.480536419247301</v>
       </c>
@@ -29796,7 +29799,7 @@
         <v>-2.29745483336387</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>-65.312838613397304</v>
       </c>
@@ -29837,7 +29840,7 @@
         <v>-0.793424918878326</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>-65.005911897361102</v>
       </c>
@@ -29878,7 +29881,7 @@
         <v>1.03624262073322</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>-63.538123748620301</v>
       </c>
@@ -29919,7 +29922,7 @@
         <v>0.77854123569422695</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>-72.528657275270504</v>
       </c>
@@ -29960,7 +29963,7 @@
         <v>-0.32383006174595402</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>-57.627353143339398</v>
       </c>
@@ -30001,7 +30004,7 @@
         <v>-0.38745150403334799</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>-66.376307059537197</v>
       </c>
@@ -30042,7 +30045,7 @@
         <v>-1.6684337660997799</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>-60.325958526248101</v>
       </c>
@@ -30083,7 +30086,7 @@
         <v>-2.1508560224814399</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>-47.160325516399602</v>
       </c>
@@ -30124,7 +30127,7 @@
         <v>-1.96028130107694</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>-54.0051285610406</v>
       </c>
@@ -30165,7 +30168,7 @@
         <v>-4.3094155118374999E-2</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>-58.039752097755397</v>
       </c>
@@ -30206,7 +30209,7 @@
         <v>1.13682401204741</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>-63.628597683179798</v>
       </c>
@@ -30247,7 +30250,7 @@
         <v>0.95633372395803395</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>-61.317816595478597</v>
       </c>
@@ -30288,7 +30291,7 @@
         <v>-5.71298574759233E-2</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>-59.923930177662498</v>
       </c>
@@ -30329,7 +30332,7 @@
         <v>0.214176745925891</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>-57.891044974016999</v>
       </c>
@@ -30370,7 +30373,7 @@
         <v>0.45746938062213399</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>-64.336712234939895</v>
       </c>
@@ -30411,7 +30414,7 @@
         <v>-0.67316248713917004</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>-66.294169122651496</v>
       </c>
@@ -30452,7 +30455,7 @@
         <v>0.54960572529363205</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>-64.431677845791597</v>
       </c>
@@ -30493,7 +30496,7 @@
         <v>-0.69800337179817395</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>-78.305080238500693</v>
       </c>
@@ -30534,7 +30537,7 @@
         <v>0.89086144974343995</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>-54.197800934735298</v>
       </c>
@@ -30575,7 +30578,7 @@
         <v>-3.8462153485847699</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>-61.970319528123703</v>
       </c>
@@ -30616,7 +30619,7 @@
         <v>-0.112333262828174</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>-59.467731978124696</v>
       </c>
@@ -30657,7 +30660,7 @@
         <v>-1.2636290771816601</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>-88.015457331475602</v>
       </c>
@@ -30698,7 +30701,7 @@
         <v>-0.460634489961597</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>-65.234541818377295</v>
       </c>
@@ -30739,7 +30742,7 @@
         <v>-1.75004398251034</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>-60.994149688500499</v>
       </c>
@@ -30780,7 +30783,7 @@
         <v>-0.27790319371108502</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>-64.068487148857002</v>
       </c>
@@ -30821,7 +30824,7 @@
         <v>-0.30307095101784398</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>-58.084378770786898</v>
       </c>
@@ -30862,7 +30865,7 @@
         <v>-1.0746877071324099</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>-51.822984846376897</v>
       </c>
@@ -30903,7 +30906,7 @@
         <v>-1.55244203067074</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>-54.187586366197202</v>
       </c>
@@ -30944,7 +30947,7 @@
         <v>-2.9838949405614699</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>-81.032555724511795</v>
       </c>
@@ -30985,7 +30988,7 @@
         <v>-7.6751602875146897E-4</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>-48.402275435649202</v>
       </c>
@@ -31026,7 +31029,7 @@
         <v>1.2048615611348501</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>-50.131767847480702</v>
       </c>
@@ -31067,7 +31070,7 @@
         <v>-0.238215178331803</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>-57.488197701711698</v>
       </c>
@@ -31108,7 +31111,7 @@
         <v>-4.2412302310197898</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>-75.513589106803494</v>
       </c>
@@ -31149,7 +31152,7 @@
         <v>3.1744937339104697E-2</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>-57.790318709119802</v>
       </c>
@@ -31190,7 +31193,7 @@
         <v>-1.9164246657825501</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>-61.454511748281703</v>
       </c>
@@ -31231,7 +31234,7 @@
         <v>-2.3086101990021599</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>-64.816087340657802</v>
       </c>
@@ -31272,7 +31275,7 @@
         <v>-2.8766847844562098</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>-76.339100379869393</v>
       </c>
@@ -31313,7 +31316,7 @@
         <v>-1.6357502694783499</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>-74.947208873941705</v>
       </c>
@@ -31354,7 +31357,7 @@
         <v>-0.28503470313792301</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>-62.368126756397203</v>
       </c>
@@ -31395,7 +31398,7 @@
         <v>1.50182167155743</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>-65.913704750085301</v>
       </c>
@@ -31436,7 +31439,7 @@
         <v>-0.84064718778534697</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>-61.362321423611597</v>
       </c>
@@ -31477,7 +31480,7 @@
         <v>0.71535687425745098</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>-63.299353976632801</v>
       </c>
@@ -31518,7 +31521,7 @@
         <v>0.71419768398426997</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>-62.508765390413103</v>
       </c>
@@ -31559,7 +31562,7 @@
         <v>0.94707146189798097</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>-63.820025054031703</v>
       </c>
@@ -31600,7 +31603,7 @@
         <v>0.89209536572812098</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>-60.785937365566703</v>
       </c>
@@ -31641,7 +31644,7 @@
         <v>0.23992891452851101</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>-57.957664014202301</v>
       </c>
@@ -31682,7 +31685,7 @@
         <v>0.32960334726161</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>-63.658395211111198</v>
       </c>
@@ -31723,7 +31726,7 @@
         <v>-0.83625616019682003</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>-58.018032294170602</v>
       </c>
@@ -31764,7 +31767,7 @@
         <v>0.18294057108238099</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>-59.0218042889476</v>
       </c>
@@ -31805,7 +31808,7 @@
         <v>-0.13337084337666399</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>-73.557525339508103</v>
       </c>
@@ -31846,7 +31849,7 @@
         <v>-1.9156219598269599</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>-67.767217618391697</v>
       </c>
@@ -31887,7 +31890,7 @@
         <v>3.15282673751862E-2</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>-52.0723446291044</v>
       </c>
@@ -31928,7 +31931,7 @@
         <v>0.82540634398355295</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>-60.525221928663697</v>
       </c>
@@ -31969,7 +31972,7 @@
         <v>-0.63043856645863305</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>-61.687112401455401</v>
       </c>
@@ -32010,7 +32013,7 @@
         <v>0.62323978816605696</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>-59.607042639082302</v>
       </c>
@@ -32051,7 +32054,7 @@
         <v>-0.77736772050393899</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>-77.433397305972903</v>
       </c>
@@ -32092,7 +32095,7 @@
         <v>0.35840731718832802</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A775">
         <f>AVERAGE(A1:A773)</f>
         <v>-66.591454690675249</v>
@@ -32149,7 +32152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A776">
         <f>_xlfn.STDEV.P(A1:A773)</f>
         <v>16.397105568231304</v>
@@ -32206,7 +32209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A777">
         <f>_xlfn.VAR.P(A1:A773)</f>
         <v>268.86507101572198</v>
@@ -32263,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A778">
         <f>MAX(A1:A773)</f>
         <v>-36.019597591430397</v>
@@ -32320,7 +32323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A779">
         <f>MIN(A1:A773)</f>
         <v>-270.76665160855401</v>
@@ -32375,6 +32378,171 @@
       </c>
       <c r="N779" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A780">
+        <f>A778-A779</f>
+        <v>234.74705401712362</v>
+      </c>
+      <c r="B780">
+        <f t="shared" ref="B780:M780" si="5">B778-B779</f>
+        <v>23.110823687216239</v>
+      </c>
+      <c r="C780">
+        <f t="shared" si="5"/>
+        <v>20.779057921043361</v>
+      </c>
+      <c r="D780">
+        <f t="shared" si="5"/>
+        <v>16.48910004815497</v>
+      </c>
+      <c r="E780">
+        <f t="shared" si="5"/>
+        <v>13.56004754058308</v>
+      </c>
+      <c r="F780">
+        <f t="shared" si="5"/>
+        <v>11.809072292718451</v>
+      </c>
+      <c r="G780">
+        <f t="shared" si="5"/>
+        <v>11.469515455431669</v>
+      </c>
+      <c r="H780">
+        <f t="shared" si="5"/>
+        <v>8.911386607631119</v>
+      </c>
+      <c r="I780">
+        <f t="shared" si="5"/>
+        <v>9.2125889496071398</v>
+      </c>
+      <c r="J780">
+        <f t="shared" si="5"/>
+        <v>8.4417847105388901</v>
+      </c>
+      <c r="K780">
+        <f t="shared" si="5"/>
+        <v>9.4066260622228306</v>
+      </c>
+      <c r="L780">
+        <f t="shared" si="5"/>
+        <v>7.3065962078491102</v>
+      </c>
+      <c r="M780">
+        <f t="shared" si="5"/>
+        <v>7.6110491561396092</v>
+      </c>
+      <c r="N780" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="781" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A781">
+        <f>0.33*A780+A779</f>
+        <v>-193.3001237829032</v>
+      </c>
+      <c r="B781">
+        <f t="shared" ref="B781:M781" si="6">0.33*B780+B779</f>
+        <v>2.0575234597650196</v>
+      </c>
+      <c r="C781">
+        <f t="shared" si="6"/>
+        <v>-4.9462402136820911</v>
+      </c>
+      <c r="D781">
+        <f t="shared" si="6"/>
+        <v>-3.0210029923864994</v>
+      </c>
+      <c r="E781">
+        <f t="shared" si="6"/>
+        <v>-4.3288213532331135</v>
+      </c>
+      <c r="F781">
+        <f t="shared" si="6"/>
+        <v>-4.6847107098933822</v>
+      </c>
+      <c r="G781">
+        <f t="shared" si="6"/>
+        <v>-3.7107113780020788</v>
+      </c>
+      <c r="H781">
+        <f t="shared" si="6"/>
+        <v>-2.0156824704622602</v>
+      </c>
+      <c r="I781">
+        <f t="shared" si="6"/>
+        <v>-1.8790520363581837</v>
+      </c>
+      <c r="J781">
+        <f t="shared" si="6"/>
+        <v>-0.34094431070425602</v>
+      </c>
+      <c r="K781">
+        <f t="shared" si="6"/>
+        <v>-1.9707425001221353</v>
+      </c>
+      <c r="L781">
+        <f t="shared" si="6"/>
+        <v>-1.3689932473318636</v>
+      </c>
+      <c r="M781">
+        <f t="shared" si="6"/>
+        <v>-1.7295840094937187</v>
+      </c>
+    </row>
+    <row r="782" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A782">
+        <f>0.67*A780+A779</f>
+        <v>-113.48612541708118</v>
+      </c>
+      <c r="B782">
+        <f t="shared" ref="B782:M782" si="7">0.67*B780+B779</f>
+        <v>9.9152035134185432</v>
+      </c>
+      <c r="C782">
+        <f t="shared" si="7"/>
+        <v>2.1186394794726517</v>
+      </c>
+      <c r="D782">
+        <f t="shared" si="7"/>
+        <v>2.5852910239861906</v>
+      </c>
+      <c r="E782">
+        <f t="shared" si="7"/>
+        <v>0.28159481056513336</v>
+      </c>
+      <c r="F782">
+        <f t="shared" si="7"/>
+        <v>-0.66962613036910845</v>
+      </c>
+      <c r="G782">
+        <f t="shared" si="7"/>
+        <v>0.18892387684468837</v>
+      </c>
+      <c r="H782">
+        <f t="shared" si="7"/>
+        <v>1.0141889761323206</v>
+      </c>
+      <c r="I782">
+        <f t="shared" si="7"/>
+        <v>1.2532282065082443</v>
+      </c>
+      <c r="J782">
+        <f t="shared" si="7"/>
+        <v>2.5292624908789665</v>
+      </c>
+      <c r="K782">
+        <f t="shared" si="7"/>
+        <v>1.2275103610336275</v>
+      </c>
+      <c r="L782">
+        <f t="shared" si="7"/>
+        <v>1.1152494633368342</v>
+      </c>
+      <c r="M782">
+        <f t="shared" si="7"/>
+        <v>0.85817270359374831</v>
       </c>
     </row>
   </sheetData>
